--- a/data/trans_camb/P38B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Provincia-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>-13.43743858528469</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>13.05545654790985</v>
+        <v>13.05545654790986</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-14.61881482446205</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-20.67307918119151</v>
+        <v>-20.07487315842596</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.289273484557409</v>
+        <v>8.706692673389666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-21.02066719099436</v>
+        <v>-21.35632436054624</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.456241786276355</v>
+        <v>5.574272810609744</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-18.53910411748208</v>
+        <v>-18.67847963530484</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>8.07503289223094</v>
+        <v>8.006701834390558</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-6.678830527378321</v>
+        <v>-6.318374324218645</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.2255687320806</v>
+        <v>18.71750442697619</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-8.436755822239556</v>
+        <v>-8.762186956227842</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.91643470538009</v>
+        <v>12.96411090407575</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-9.257431710952851</v>
+        <v>-9.579471859527338</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.28061285986058</v>
+        <v>14.22025484433581</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>-0.1599789144919154</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.1554312418602014</v>
+        <v>0.1554312418602015</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.1629968274925236</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2403622450861183</v>
+        <v>-0.2345749559738432</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.0951880936570466</v>
+        <v>0.09911115802061263</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2309313425744127</v>
+        <v>-0.232473113187685</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.05865397197058535</v>
+        <v>0.05961041766866267</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2100331179714958</v>
+        <v>-0.2125050694933516</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09027380209300247</v>
+        <v>0.08993858395881164</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.08203907901352149</v>
+        <v>-0.08012278499807696</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2307052580492348</v>
+        <v>0.2361076124007313</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.09654073209374785</v>
+        <v>-0.101255852966673</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1497984772957356</v>
+        <v>0.1514248292323056</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1080746258775418</v>
+        <v>-0.1127693386956364</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1694849147599015</v>
+        <v>0.1696342848425074</v>
       </c>
     </row>
     <row r="10">
@@ -778,7 +778,7 @@
         <v>1.477698001573957</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-9.46480062710452</v>
+        <v>-9.464800627104509</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>1.473378767328415</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.637039948327654</v>
+        <v>-2.671005281166227</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-16.99962364689185</v>
+        <v>-17.02827047952715</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.447906940451837</v>
+        <v>-1.285398775116956</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-13.66046352641947</v>
+        <v>-14.20451965218189</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.131191989975695</v>
+        <v>-0.9682787137567551</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-14.15374639097644</v>
+        <v>-14.09224985641711</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.743214662644509</v>
+        <v>5.739393882694742</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-4.662212490686495</v>
+        <v>-4.78366666714119</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.257505776283679</v>
+        <v>4.451112915546161</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.404453805835652</v>
+        <v>-5.547411857732388</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.079238825656388</v>
+        <v>4.01126357331575</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-6.647933768631307</v>
+        <v>-6.297657636369836</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         <v>0.01581308448303482</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.1012843570012732</v>
+        <v>-0.1012843570012731</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01632669336680446</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.02947066184573199</v>
+        <v>-0.03004391714735558</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1922292800569348</v>
+        <v>-0.192295650731798</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.01536453191143053</v>
+        <v>-0.01342996012529149</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1440920062315907</v>
+        <v>-0.1492139356289799</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.01248586896210722</v>
+        <v>-0.01062820098097971</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.154286670112489</v>
+        <v>-0.1540802640147309</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.06773887227073853</v>
+        <v>0.06873815315966839</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.05481541940405005</v>
+        <v>-0.05632039647078346</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.04657903935931738</v>
+        <v>0.04861607124394438</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.058549856257191</v>
+        <v>-0.06001745174052716</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04516649311033442</v>
+        <v>0.0451344635308632</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.0746362663184021</v>
+        <v>-0.07059513724988677</v>
       </c>
     </row>
     <row r="16">
@@ -932,19 +932,19 @@
         <v>5.119254371331428</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>9.058795266738285</v>
+        <v>9.058795266738306</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>3.814048363265421</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.493052419516278</v>
+        <v>8.493052419516268</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>4.450281348990193</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>8.829645733001001</v>
+        <v>8.829645733000968</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1026797114588923</v>
+        <v>-0.3025504576053401</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.384712496604937</v>
+        <v>4.220045434649848</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7096316030983821</v>
+        <v>-0.5177167005963413</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.344767419193986</v>
+        <v>4.618363385136824</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.201317454798437</v>
+        <v>1.161179588329586</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.637440667516953</v>
+        <v>5.759920593873136</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.36523016663793</v>
+        <v>10.2205411084196</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.61416455030411</v>
+        <v>14.97029919783509</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.475334144713432</v>
+        <v>8.848108269008037</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.66903155343444</v>
+        <v>12.50402792482929</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.978159181920866</v>
+        <v>8.029016628153993</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.20328059989522</v>
+        <v>12.16697326005277</v>
       </c>
     </row>
     <row r="19">
@@ -1010,19 +1010,19 @@
         <v>0.06067427429685563</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.107366383645864</v>
+        <v>0.1073663836458642</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.04311282239343355</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.09600283626902852</v>
+        <v>0.09600283626902839</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05146502743490542</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1021099396316827</v>
+        <v>0.1021099396316823</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.0004044761221095715</v>
+        <v>-0.003299804220589827</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.04326540781549353</v>
+        <v>0.04787931415822037</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.00761386183846144</v>
+        <v>-0.005714829827810659</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.04732520749185212</v>
+        <v>0.05087398525978195</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01341452713462009</v>
+        <v>0.01310887849411115</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0646957687436589</v>
+        <v>0.06534284975798836</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1281270887976978</v>
+        <v>0.1254241720473474</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1701253318809252</v>
+        <v>0.1858084757614218</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.09955209913776462</v>
+        <v>0.1033445966678139</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1481423214055982</v>
+        <v>0.1469813589334681</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09524198753153873</v>
+        <v>0.09621217715427731</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1463109699306414</v>
+        <v>0.1452825312517727</v>
       </c>
     </row>
     <row r="22">
@@ -1092,19 +1092,19 @@
         <v>14.38826366844165</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>9.266530277039287</v>
+        <v>9.266530277039264</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>6.515872097522113</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.759239320481603</v>
+        <v>7.759239320481615</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>10.37462862980154</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>8.631721504894763</v>
+        <v>8.631721504894752</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>9.001602786599673</v>
+        <v>9.341381982244357</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8031434860237601</v>
+        <v>1.406354948801021</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.440912234163601</v>
+        <v>2.152966153016032</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.797480874212346</v>
+        <v>3.257086270873329</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>6.753470500840806</v>
+        <v>7.011649831912002</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.640836545740843</v>
+        <v>3.864803725029886</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.38494488912642</v>
+        <v>20.38980770584352</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.84005569322831</v>
+        <v>16.24485430234172</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.21529295101854</v>
+        <v>11.36764711111685</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.09844482617043</v>
+        <v>12.72472694016319</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.79880233699964</v>
+        <v>13.8946238102596</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.76457908487569</v>
+        <v>12.77468020627488</v>
       </c>
     </row>
     <row r="25">
@@ -1170,19 +1170,19 @@
         <v>0.1869328932556147</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.1203911295375447</v>
+        <v>0.1203911295375444</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.07667803721921485</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.09130984041797555</v>
+        <v>0.09130984041797567</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.127998451616137</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1064950878564003</v>
+        <v>0.1064950878564002</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1108753446626678</v>
+        <v>0.1181674343434454</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.01059720844959438</v>
+        <v>0.02168048143444884</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.01642153505314844</v>
+        <v>0.02487972097738161</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.03160186268833518</v>
+        <v>0.03827676112671164</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.08074588086907704</v>
+        <v>0.08483173077731924</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04419213722000274</v>
+        <v>0.04664105842449563</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.26590506466438</v>
+        <v>0.2826382278122225</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2141080287688156</v>
+        <v>0.2248662994561379</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1365750043507947</v>
+        <v>0.1389278070599794</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1481379696955182</v>
+        <v>0.1587152366996523</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1755499861342831</v>
+        <v>0.1768706326291126</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1631380532486105</v>
+        <v>0.1609184212747195</v>
       </c>
     </row>
     <row r="28">
@@ -1258,7 +1258,7 @@
         <v>-3.446817948315395</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-5.433502487899133</v>
+        <v>-5.433502487899156</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-4.761573454082047</v>
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-14.10434397204033</v>
+        <v>-13.52697245597844</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.57141797844747</v>
+        <v>-13.38871807815623</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-9.278480391599278</v>
+        <v>-8.598323706917425</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-10.57287799850607</v>
+        <v>-10.84919967664538</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.184567415726598</v>
+        <v>-9.811358038996785</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-10.02222524471638</v>
+        <v>-10.27010522415141</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.925998394003787</v>
+        <v>1.857804584709519</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.081752628549459</v>
+        <v>2.969627174574532</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.827543403640778</v>
+        <v>2.521450704910495</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.04437938613377384</v>
+        <v>0.171980599203052</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.1026461284167395</v>
+        <v>-0.6226184295708379</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.1175564032380532</v>
+        <v>-0.4307267174596482</v>
       </c>
     </row>
     <row r="31">
@@ -1336,7 +1336,7 @@
         <v>-0.03747391076921031</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.05907320620032437</v>
+        <v>-0.05907320620032461</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.05415989901390444</v>
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1608673281385902</v>
+        <v>-0.1539786428947943</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1453361363060328</v>
+        <v>-0.1552376356922124</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.09889478253974995</v>
+        <v>-0.09218783833430087</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1144919574890055</v>
+        <v>-0.1165964734736661</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1012271419767036</v>
+        <v>-0.1084774467315716</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1107811410274147</v>
+        <v>-0.1153221358176255</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.02437629354528351</v>
+        <v>0.02270085550692451</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.02577437409647978</v>
+        <v>0.0361778867278707</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.0203275874101366</v>
+        <v>0.0274829642518762</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.003792205592975712</v>
+        <v>0.0009619778446055973</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.001376372547280258</v>
+        <v>-0.006881367292174192</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.00113606986297569</v>
+        <v>-0.005398541567507364</v>
       </c>
     </row>
     <row r="34">
@@ -1412,19 +1412,19 @@
         <v>-7.212041026953953</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>6.114361985635385</v>
+        <v>6.114361985635397</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>-1.651351357706188</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8.727850570099294</v>
+        <v>8.727850570099282</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-4.380781447526338</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>7.393630165670451</v>
+        <v>7.393630165670428</v>
       </c>
     </row>
     <row r="35">
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-13.52971738806325</v>
+        <v>-13.99677229349743</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.132427464695031</v>
+        <v>1.071291390062669</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-7.081529524730391</v>
+        <v>-7.718632572993268</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4.207556432028384</v>
+        <v>4.536115708254024</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-8.395846104165141</v>
+        <v>-8.43777090313379</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>4.174658777711834</v>
+        <v>4.052993803650253</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-1.14252580457059</v>
+        <v>-1.619825486403683</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>11.15169019454798</v>
+        <v>10.61427486555309</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.472385468327884</v>
+        <v>3.68802111963152</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13.30790724559065</v>
+        <v>13.19021967540625</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-0.3175243765222442</v>
+        <v>-0.1805815561603747</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.930009746528</v>
+        <v>10.81652989411772</v>
       </c>
     </row>
     <row r="37">
@@ -1490,19 +1490,19 @@
         <v>-0.08213924253982037</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.06963757696848294</v>
+        <v>0.06963757696848306</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.01867596811595141</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.09870767853691637</v>
+        <v>0.09870767853691624</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.04971677940594366</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08390911173241278</v>
+        <v>0.08390911173241251</v>
       </c>
     </row>
     <row r="38">
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1506847061462205</v>
+        <v>-0.1559906078008034</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.01261092499966883</v>
+        <v>0.01244005434412539</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.07697443580043321</v>
+        <v>-0.08386977729603788</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.0467626616901179</v>
+        <v>0.04928246011268766</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.0934286233564634</v>
+        <v>-0.0935060438892015</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04622130259680154</v>
+        <v>0.04474910619630423</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.01507763855974095</v>
+        <v>-0.01894006557158815</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1317555293960972</v>
+        <v>0.1252947593652838</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.05291247042266482</v>
+        <v>0.04345174149587282</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1558143110161893</v>
+        <v>0.1550642979470165</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.003749365457250681</v>
+        <v>-0.002079846448483837</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1278104923295153</v>
+        <v>0.1266398483230193</v>
       </c>
     </row>
     <row r="40">
@@ -1578,13 +1578,13 @@
         <v>-18.7254057089047</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>-1.164628820324121</v>
+        <v>-1.164628820324132</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>-19.20377561797474</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-1.670743606823788</v>
+        <v>-1.670743606823766</v>
       </c>
     </row>
     <row r="41">
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-24.09014482621584</v>
+        <v>-24.59896272997925</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-7.163671399000668</v>
+        <v>-6.792587819935744</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-23.05711061254385</v>
+        <v>-22.66989432470488</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.318400801638835</v>
+        <v>-4.071307373855372</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-22.05076222471359</v>
+        <v>-22.31243983021263</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.230335243409869</v>
+        <v>-4.588473816897809</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-14.86287397056254</v>
+        <v>-15.02173107308836</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.058507198262474</v>
+        <v>2.047583801780391</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-15.07669526537058</v>
+        <v>-14.74067175653379</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.796219524549171</v>
+        <v>1.716411067294122</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-16.09078092677187</v>
+        <v>-16.25505386029761</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.268737480442757</v>
+        <v>1.126452821470338</v>
       </c>
     </row>
     <row r="43">
@@ -1656,13 +1656,13 @@
         <v>-0.202823192743178</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>-0.0126146124346203</v>
+        <v>-0.01261461243462042</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>-0.2154452143713143</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.01874390337047768</v>
+        <v>-0.01874390337047743</v>
       </c>
     </row>
     <row r="44">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2794244247916063</v>
+        <v>-0.2824347539470907</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.08235305143891335</v>
+        <v>-0.07855461758698347</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.246961314086511</v>
+        <v>-0.2436399617096457</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.04575887189222048</v>
+        <v>-0.04321931019213557</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2457501567332657</v>
+        <v>-0.2476463895988471</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.04693224403706717</v>
+        <v>-0.05091689513073823</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1793829419937585</v>
+        <v>-0.1768525858948467</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.02423842886877737</v>
+        <v>0.02387785291734333</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1633980361015292</v>
+        <v>-0.161708556617812</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.01938334495389321</v>
+        <v>0.01865744465282158</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.1836459236684312</v>
+        <v>-0.183781802646114</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.01407626455418365</v>
+        <v>0.01278711979265004</v>
       </c>
     </row>
     <row r="46">
@@ -1738,7 +1738,7 @@
         <v>15.14055280527</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>-10.27575364346107</v>
+        <v>-10.27575364346106</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>15.05977980699039</v>
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>10.90801659769084</v>
+        <v>11.05249897160051</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-19.33703218251424</v>
+        <v>-19.69989370707138</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>11.68982658513524</v>
+        <v>11.98961065624897</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-14.75114802075705</v>
+        <v>-14.7706920587657</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>12.64598651418328</v>
+        <v>12.54540907982275</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-15.54164209935386</v>
+        <v>-15.47767320644681</v>
       </c>
     </row>
     <row r="48">
@@ -1781,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>18.52319570420644</v>
+        <v>18.99830675159541</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-9.699511916639739</v>
+        <v>-9.692888932825355</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>18.20870478439157</v>
+        <v>18.65941311294212</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-6.241761012826188</v>
+        <v>-6.309125357124941</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>17.69128627776571</v>
+        <v>17.8326394599673</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-8.417711999556495</v>
+        <v>-9.040311859415022</v>
       </c>
     </row>
     <row r="49">
@@ -1816,7 +1816,7 @@
         <v>0.1907915672483014</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>-0.1294884782285477</v>
+        <v>-0.1294884782285476</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1958436176822746</v>
@@ -1833,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1413692341734552</v>
+        <v>0.1436128917010613</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.253808531575993</v>
+        <v>-0.2558348348407301</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.1418782748994322</v>
+        <v>0.146123518806502</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.184173478290824</v>
+        <v>-0.1815711749028312</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1613521318526474</v>
+        <v>0.16050861334567</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1977660788184148</v>
+        <v>-0.1967661150618337</v>
       </c>
     </row>
     <row r="51">
@@ -1859,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2573410176795009</v>
+        <v>0.2631960266795807</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1329226466705874</v>
+        <v>-0.1355271873510644</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2361845648558724</v>
+        <v>0.2448238058896586</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.08132838200673262</v>
+        <v>-0.08121558617030218</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2377379588926165</v>
+        <v>0.2369531688347421</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.1115503669530585</v>
+        <v>-0.1196658157658559</v>
       </c>
     </row>
     <row r="52">
@@ -1898,13 +1898,13 @@
         <v>-0.3788425781194094</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>-1.088113216645636</v>
+        <v>-1.088113216645659</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>-0.3049295880907299</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-1.599970686990138</v>
+        <v>-1.599970686990126</v>
       </c>
     </row>
     <row r="53">
@@ -1915,22 +1915,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-2.249079516217912</v>
+        <v>-2.191372095678468</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-4.369135993383395</v>
+        <v>-4.212338187798579</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-1.954030160954456</v>
+        <v>-2.012297171736551</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-2.650113891894207</v>
+        <v>-2.676672783771787</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.405089965378818</v>
+        <v>-1.680806961345379</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-3.111955856274668</v>
+        <v>-2.857467385937147</v>
       </c>
     </row>
     <row r="54">
@@ -1941,22 +1941,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.520282488203124</v>
+        <v>1.751812654605152</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.1696324339417973</v>
+        <v>0.03458026640793865</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.100036008289542</v>
+        <v>1.109186448118803</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.6247052912811685</v>
+        <v>0.4622465559435642</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.969543016994414</v>
+        <v>0.9005751566887402</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-0.3486143648482871</v>
+        <v>-0.214895153022741</v>
       </c>
     </row>
     <row r="55">
@@ -1976,13 +1976,13 @@
         <v>-0.004315520567088463</v>
       </c>
       <c r="F55" s="6" t="n">
-        <v>-0.01239505598622271</v>
+        <v>-0.01239505598622296</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>-0.003586746716238485</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.01881972045930878</v>
+        <v>-0.01881972045930865</v>
       </c>
     </row>
     <row r="56">
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.02709748146504838</v>
+        <v>-0.02645420201190095</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.0527159708903282</v>
+        <v>-0.05081193534047024</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.02207441554317321</v>
+        <v>-0.02285122623838167</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.03012016791257461</v>
+        <v>-0.03019835541331583</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.01641700870080642</v>
+        <v>-0.01954297693098398</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.03628907976707773</v>
+        <v>-0.0334967184374209</v>
       </c>
     </row>
     <row r="57">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.01861294197759219</v>
+        <v>0.02162060730814564</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.002331490449523767</v>
+        <v>0.0004080641809078982</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.01269598266302454</v>
+        <v>0.01267902434467606</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.007136946472816904</v>
+        <v>0.005502466810203127</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.01156438562676892</v>
+        <v>0.01071206539202251</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.004114978843518179</v>
+        <v>-0.002585762623549505</v>
       </c>
     </row>
     <row r="58">
